--- a/六福村.xlsx
+++ b/六福村.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikesam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikesam/Google Drive/Mike_Cloud(School)/NCNU/1061/計算智慧及規劃/project/sol/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -838,7 +838,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1154,11 +1153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-86064720"/>
-        <c:axId val="-86062400"/>
+        <c:axId val="1115998944"/>
+        <c:axId val="1071701168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-86064720"/>
+        <c:axId val="1115998944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,12 +1214,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86062400"/>
+        <c:crossAx val="1071701168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-86062400"/>
+        <c:axId val="1071701168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86064720"/>
+        <c:crossAx val="1115998944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1656,11 +1655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-175570000"/>
-        <c:axId val="-175566928"/>
+        <c:axId val="980328272"/>
+        <c:axId val="980330320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-175570000"/>
+        <c:axId val="980328272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,12 +1715,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-175566928"/>
+        <c:crossAx val="980330320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-175566928"/>
+        <c:axId val="980330320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,6 +1740,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1777,7 +1777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-175570000"/>
+        <c:crossAx val="980328272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17296,34 +17296,34 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G34"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <f>A1+1</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP($B1,index_n,2,0)</f>
-        <v>C24</v>
+        <f t="shared" ref="C1:C34" si="0">VLOOKUP($B1,index_n,2,0)</f>
+        <v>D29</v>
       </c>
       <c r="D1">
-        <f>VLOOKUP($B1,index_n,3,0)</f>
-        <v>54</v>
+        <f t="shared" ref="D1:D34" si="1">VLOOKUP($B1,index_n,3,0)</f>
+        <v>68</v>
       </c>
       <c r="E1">
-        <f>VLOOKUP($B1,index_n,4,0)</f>
-        <v>43</v>
+        <f t="shared" ref="E1:E34" si="2">VLOOKUP($B1,index_n,4,0)</f>
+        <v>38</v>
       </c>
       <c r="G1" t="str">
         <f>"("&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;")"</f>
-        <v>(C24,54,43)</v>
+        <v>(D29,68,38)</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17331,224 +17331,224 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B33" si="0">A2+1</f>
+        <f t="shared" ref="B2:B33" si="3">A2+1</f>
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP($B2,index_n,2,0)</f>
+        <f t="shared" si="0"/>
         <v>A1</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP($B2,index_n,3,0)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP($B2,index_n,4,0)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G34" si="1">"("&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;")"</f>
+        <f t="shared" ref="G2:G34" si="4">"("&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;")"</f>
         <v>(A1,27,24)</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP($B3,index_n,2,0)</f>
-        <v>B14</v>
+        <f t="shared" si="0"/>
+        <v>A11</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP($B3,index_n,3,0)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP($B3,index_n,4,0)</f>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
-        <v>(B14,20,38)</v>
+        <f t="shared" si="4"/>
+        <v>(A11,24,31)</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
       <c r="C4" t="str">
-        <f>VLOOKUP($B4,index_n,2,0)</f>
-        <v>C25</v>
+        <f t="shared" si="0"/>
+        <v>C24</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP($B4,index_n,3,0)</f>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP($B4,index_n,4,0)</f>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>(C25,67,42)</v>
+        <f t="shared" si="4"/>
+        <v>(C24,54,43)</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP($B5,index_n,2,0)</f>
-        <v>A5</v>
+        <f t="shared" si="0"/>
+        <v>A2</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP($B5,index_n,3,0)</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP($B5,index_n,4,0)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>(A5,21,25)</v>
+        <f t="shared" si="4"/>
+        <v>(A2,34,26)</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP($B6,index_n,2,0)</f>
-        <v>A8</v>
+        <f t="shared" si="0"/>
+        <v>B18</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP($B6,index_n,3,0)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP($B6,index_n,4,0)</f>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>(A8,22,28)</v>
+        <f t="shared" si="4"/>
+        <v>(B18,35,37)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP($B7,index_n,2,0)</f>
-        <v>B19</v>
+        <f t="shared" si="0"/>
+        <v>C26</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP($B7,index_n,3,0)</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP($B7,index_n,4,0)</f>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>(B19,34,42)</v>
+        <f t="shared" si="4"/>
+        <v>(C26,62,38)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP($B8,index_n,2,0)</f>
-        <v>B16</v>
+        <f t="shared" si="0"/>
+        <v>A4</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP($B8,index_n,3,0)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP($B8,index_n,4,0)</f>
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>(B16,18,41)</v>
+        <f t="shared" si="4"/>
+        <v>(A4,24,23)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP($B9,index_n,2,0)</f>
-        <v>B21</v>
+        <f t="shared" si="0"/>
+        <v>A9</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP($B9,index_n,3,0)</f>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP($B9,index_n,4,0)</f>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>(B21,33,39)</v>
+        <f t="shared" si="4"/>
+        <v>(A9,12,29)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP($B10,index_n,2,0)</f>
-        <v>A3</v>
+        <f t="shared" si="0"/>
+        <v>A5</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP($B10,index_n,3,0)</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP($B10,index_n,4,0)</f>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>(A3,24,21)</v>
+        <f t="shared" si="4"/>
+        <v>(A5,21,25)</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -17556,23 +17556,23 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP($B11,index_n,2,0)</f>
+        <f t="shared" si="0"/>
         <v>A10</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP($B11,index_n,3,0)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP($B11,index_n,4,0)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(A10,22,30)</v>
       </c>
     </row>
@@ -17581,149 +17581,149 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP($B12,index_n,2,0)</f>
+        <f t="shared" si="0"/>
         <v>B12</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP($B12,index_n,3,0)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP($B12,index_n,4,0)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(B12,22,24)</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
       <c r="C13" t="str">
-        <f>VLOOKUP($B13,index_n,2,0)</f>
-        <v>C26</v>
+        <f t="shared" si="0"/>
+        <v>C25</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP($B13,index_n,3,0)</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP($B13,index_n,4,0)</f>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>(C26,62,38)</v>
+        <f t="shared" si="4"/>
+        <v>(C25,67,42)</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>A3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP($B14,index_n,2,0)</f>
-        <v>C22</v>
-      </c>
-      <c r="D14">
-        <f>VLOOKUP($B14,index_n,3,0)</f>
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <f>VLOOKUP($B14,index_n,4,0)</f>
-        <v>45</v>
-      </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>(C22,45,45)</v>
+        <f t="shared" si="4"/>
+        <v>(A3,24,21)</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP($B15,index_n,2,0)</f>
-        <v>B20</v>
+        <f t="shared" si="0"/>
+        <v>A6</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP($B15,index_n,3,0)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP($B15,index_n,4,0)</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>(B20,35,40)</v>
+        <f t="shared" si="4"/>
+        <v>(A6,14,25)</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP($B16,index_n,2,0)</f>
-        <v>B18</v>
+        <f t="shared" si="0"/>
+        <v>A7</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP($B16,index_n,3,0)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP($B16,index_n,4,0)</f>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>(B18,35,37)</v>
+        <f t="shared" si="4"/>
+        <v>(A7,12,28)</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="C17" t="str">
-        <f>VLOOKUP($B17,index_n,2,0)</f>
-        <v>A9</v>
+        <f t="shared" si="0"/>
+        <v>A8</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP($B17,index_n,3,0)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP($B17,index_n,4,0)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>(A9,12,29)</v>
+        <f t="shared" si="4"/>
+        <v>(A8,22,28)</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -17731,74 +17731,74 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP($B18,index_n,2,0)</f>
+        <f t="shared" si="0"/>
         <v>B13</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP($B18,index_n,3,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP($B18,index_n,4,0)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(B13,15,35)</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP($B19,index_n,2,0)</f>
-        <v>A6</v>
+        <f t="shared" si="0"/>
+        <v>C22</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP($B19,index_n,3,0)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP($B19,index_n,4,0)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>(A6,14,25)</v>
+        <f t="shared" si="4"/>
+        <v>(C22,45,45)</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP($B20,index_n,2,0)</f>
-        <v>A7</v>
+        <f t="shared" si="0"/>
+        <v>B14</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP($B20,index_n,3,0)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP($B20,index_n,4,0)</f>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>(A7,12,28)</v>
+        <f t="shared" si="4"/>
+        <v>(B14,20,38)</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -17806,124 +17806,124 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP($B21,index_n,2,0)</f>
+        <f t="shared" si="0"/>
         <v>D28</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP($B21,index_n,3,0)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP($B21,index_n,4,0)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(D28,66,39)</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP($B22,index_n,2,0)</f>
-        <v>D33</v>
+        <f t="shared" si="0"/>
+        <v>D31</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP($B22,index_n,3,0)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP($B22,index_n,4,0)</f>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>(D33,95,28)</v>
+        <f t="shared" si="4"/>
+        <v>(D31,73,38)</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP($B23,index_n,2,0)</f>
-        <v>D32</v>
+        <f t="shared" si="0"/>
+        <v>D34</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP($B23,index_n,3,0)</f>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP($B23,index_n,4,0)</f>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>(D32,83,31)</v>
+        <f t="shared" si="4"/>
+        <v>(D34,89,23)</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP($B24,index_n,2,0)</f>
-        <v>D30</v>
+        <f t="shared" si="0"/>
+        <v>B16</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP($B24,index_n,3,0)</f>
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP($B24,index_n,4,0)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>(D30,71,32)</v>
+        <f t="shared" si="4"/>
+        <v>(B16,18,41)</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP($B25,index_n,2,0)</f>
-        <v>A4</v>
+        <f t="shared" si="0"/>
+        <v>C23</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP($B25,index_n,3,0)</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP($B25,index_n,4,0)</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>(A4,24,23)</v>
+        <f t="shared" si="4"/>
+        <v>(C23,42,42)</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -17931,124 +17931,124 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP($B26,index_n,2,0)</f>
+        <f t="shared" si="0"/>
         <v>B15</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP($B26,index_n,3,0)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP($B26,index_n,4,0)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(B15,13,38)</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP($B27,index_n,2,0)</f>
-        <v>C23</v>
+        <f t="shared" si="0"/>
+        <v>B20</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP($B27,index_n,3,0)</f>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP($B27,index_n,4,0)</f>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>(C23,42,42)</v>
+        <f t="shared" si="4"/>
+        <v>(B20,35,40)</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP($B28,index_n,2,0)</f>
-        <v>D29</v>
+        <f t="shared" si="0"/>
+        <v>B19</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP($B28,index_n,3,0)</f>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP($B28,index_n,4,0)</f>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>(D29,68,38)</v>
+        <f t="shared" si="4"/>
+        <v>(B19,34,42)</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP($B29,index_n,2,0)</f>
-        <v>A2</v>
+        <f t="shared" si="0"/>
+        <v>B17</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP($B29,index_n,3,0)</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP($B29,index_n,4,0)</f>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>(A2,34,26)</v>
+        <f t="shared" si="4"/>
+        <v>(B17,21,43)</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP($B30,index_n,2,0)</f>
-        <v>B17</v>
+        <f t="shared" si="0"/>
+        <v>B21</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP($B30,index_n,3,0)</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP($B30,index_n,4,0)</f>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>(B17,21,43)</v>
+        <f t="shared" si="4"/>
+        <v>(B21,33,39)</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -18056,99 +18056,99 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP($B31,index_n,2,0)</f>
+        <f t="shared" si="0"/>
         <v>C27</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP($B31,index_n,3,0)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP($B31,index_n,4,0)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(C27,43,39)</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>D32</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="C32" t="str">
-        <f>VLOOKUP($B32,index_n,2,0)</f>
-        <v>D31</v>
-      </c>
-      <c r="D32">
-        <f>VLOOKUP($B32,index_n,3,0)</f>
-        <v>73</v>
-      </c>
-      <c r="E32">
-        <f>VLOOKUP($B32,index_n,4,0)</f>
-        <v>38</v>
-      </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>(D31,73,38)</v>
+        <f t="shared" si="4"/>
+        <v>(D32,83,31)</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
       <c r="C33" t="str">
-        <f>VLOOKUP($B33,index_n,2,0)</f>
-        <v>D34</v>
+        <f t="shared" si="0"/>
+        <v>D33</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP($B33,index_n,3,0)</f>
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP($B33,index_n,4,0)</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>(D34,89,23)</v>
+        <f t="shared" si="4"/>
+        <v>(D33,95,28)</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <f>A34+1</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP($B34,index_n,2,0)</f>
-        <v>A11</v>
+        <f t="shared" si="0"/>
+        <v>D30</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP($B34,index_n,3,0)</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP($B34,index_n,4,0)</f>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>(A11,24,31)</v>
+        <f t="shared" si="4"/>
+        <v>(D30,71,32)</v>
       </c>
     </row>
   </sheetData>

--- a/六福村.xlsx
+++ b/六福村.xlsx
@@ -20,6 +20,8 @@
     <sheet name="old" sheetId="6" r:id="rId6"/>
     <sheet name="print_teacher" sheetId="8" r:id="rId7"/>
     <sheet name="java" sheetId="3" r:id="rId8"/>
+    <sheet name="java_before" sheetId="9" r:id="rId9"/>
+    <sheet name="java_after" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">normal!$B$1:$G$35</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="183">
   <si>
     <t>互動遊戲廣場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +545,117 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>(D28,66,39)</t>
+  </si>
+  <si>
+    <t>(D29,68,38)</t>
+  </si>
+  <si>
+    <t>(C25,67,42)</t>
+  </si>
+  <si>
+    <t>(C22,45,45)</t>
+  </si>
+  <si>
+    <t>(B19,34,42)</t>
+  </si>
+  <si>
+    <t>(B21,33,39)</t>
+  </si>
+  <si>
+    <t>(B17,21,43)</t>
+  </si>
+  <si>
+    <t>(B16,18,41)</t>
+  </si>
+  <si>
+    <t>(A7,12,28)</t>
+  </si>
+  <si>
+    <t>(A6,14,25)</t>
+  </si>
+  <si>
+    <t>(B12,22,24)</t>
+  </si>
+  <si>
+    <t>(A4,24,23)</t>
+  </si>
+  <si>
+    <t>(A5,21,25)</t>
+  </si>
+  <si>
+    <t>(A9,12,29)</t>
+  </si>
+  <si>
+    <t>(B13,15,35)</t>
+  </si>
+  <si>
+    <t>(B15,13,38)</t>
+  </si>
+  <si>
+    <t>(B14,20,38)</t>
+  </si>
+  <si>
+    <t>(A11,24,31)</t>
+  </si>
+  <si>
+    <t>(A10,22,30)</t>
+  </si>
+  <si>
+    <t>(A8,22,28)</t>
+  </si>
+  <si>
+    <t>(A3,24,21)</t>
+  </si>
+  <si>
+    <t>(A1,27,24)</t>
+  </si>
+  <si>
+    <t>(A2,34,26)</t>
+  </si>
+  <si>
+    <t>(B18,35,37)</t>
+  </si>
+  <si>
+    <t>(B20,35,40)</t>
+  </si>
+  <si>
+    <t>(C23,42,42)</t>
+  </si>
+  <si>
+    <t>(C27,43,39)</t>
+  </si>
+  <si>
+    <t>(C24,54,43)</t>
+  </si>
+  <si>
+    <t>(C26,62,38)</t>
+  </si>
+  <si>
+    <t>(D30,71,32)</t>
+  </si>
+  <si>
+    <t>(D33,95,28)</t>
+  </si>
+  <si>
+    <t>(D34,89,23)</t>
+  </si>
+  <si>
+    <t>(D32,83,31)</t>
+  </si>
+  <si>
+    <t>(D31,73,38)</t>
+  </si>
+  <si>
+    <t>from txt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
@@ -635,7 +748,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -703,8 +816,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -732,8 +849,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -767,6 +885,8 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -800,6 +920,8 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,6 +960,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1153,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1115998944"/>
-        <c:axId val="1071701168"/>
+        <c:axId val="1900960064"/>
+        <c:axId val="1900962112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1115998944"/>
+        <c:axId val="1900960064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,12 +1337,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071701168"/>
+        <c:crossAx val="1900962112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1071701168"/>
+        <c:axId val="1900962112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115998944"/>
+        <c:crossAx val="1900960064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1340,6 +1463,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1655,11 +1779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="980328272"/>
-        <c:axId val="980330320"/>
+        <c:axId val="1900994320"/>
+        <c:axId val="1900996800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="980328272"/>
+        <c:axId val="1900994320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +1839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="980330320"/>
+        <c:crossAx val="1900996800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="980330320"/>
+        <c:axId val="1900996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="980328272"/>
+        <c:crossAx val="1900994320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4384,6 +4508,756 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="str">
+        <f>RIGHT(A2,6)</f>
+        <v>42,42)</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(B2,2)</f>
+        <v>42</v>
+      </c>
+      <c r="D2" t="str">
+        <f>MID(B2,4,2)</f>
+        <v>42</v>
+      </c>
+      <c r="E2" s="15">
+        <f>SQRT(((ABS(C2)-ABS(C35))^2)+(((ABS(D2)-ABS(D35))^2)))</f>
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B35" si="0">RIGHT(A3,6)</f>
+        <v>21,43)</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C35" si="1">LEFT(B3,2)</f>
+        <v>21</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D35" si="2">MID(B3,4,2)</f>
+        <v>43</v>
+      </c>
+      <c r="E3" s="15">
+        <f>SQRT(((ABS(C2)-ABS(C3))^2)+(((ABS(D2)-ABS(D3))^2)))</f>
+        <v>21.023796041628639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>18,41)</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" ref="E4:E35" si="3">SQRT(((ABS(C3)-ABS(C4))^2)+(((ABS(D3)-ABS(D4))^2)))</f>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>13,38)</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="3"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,29)</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="3"/>
+        <v>9.0553851381374173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>12,28)</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>14,25)</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="3"/>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>22,28)</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="3"/>
+        <v>8.5440037453175304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>21,25)</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>24,31)</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="3"/>
+        <v>6.7082039324993694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>22,30)</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>15,35)</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="3"/>
+        <v>8.6023252670426267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>20,38)</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="3"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>35,37)</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="3"/>
+        <v>15.033296378372908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>54,43)</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="3"/>
+        <v>19.924858845171276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>67,42)</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="3"/>
+        <v>13.038404810405298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>73,38)</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="3"/>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>89,23)</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="3"/>
+        <v>21.931712199461309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>95,28)</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="3"/>
+        <v>7.810249675906654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>83,31)</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="3"/>
+        <v>12.369316876852981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>71,32)</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="3"/>
+        <v>12.041594578792296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>68,38)</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="3"/>
+        <v>6.7082039324993694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>66,39)</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>62,38)</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="3"/>
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>34,26)</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="3"/>
+        <v>30.463092423455635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>24,23)</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="3"/>
+        <v>10.440306508910551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>22,24)</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>24,21)</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="3"/>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>27,24)</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>33,39)</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="3"/>
+        <v>16.15549442140351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>34,42)</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>35,40)</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>43,39)</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="3"/>
+        <v>8.0622577482985491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>45,45)</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="3"/>
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="15">
+        <f>SUM(E2:E35)</f>
+        <v>292.80393224169535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
@@ -5720,7 +6594,7 @@
   <dimension ref="A1:AR35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D35"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17293,10 +18167,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18801,4 +19678,754 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="str">
+        <f>RIGHT(A2,6)</f>
+        <v>42,42)</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(B2,2)</f>
+        <v>42</v>
+      </c>
+      <c r="D2" t="str">
+        <f>MID(B2,4,2)</f>
+        <v>42</v>
+      </c>
+      <c r="E2" s="9">
+        <f>SQRT(((ABS(C2-C35))^2)+(((ABS(D2-D35))^2)))</f>
+        <v>9.4868329805051381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B35" si="0">RIGHT(A3,6)</f>
+        <v>27,24)</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C35" si="1">LEFT(B3,2)</f>
+        <v>27</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D35" si="2">MID(B3,4,2)</f>
+        <v>24</v>
+      </c>
+      <c r="E3" s="9">
+        <f>SQRT(((ABS(C3-C2))^2)+(((ABS(D3-D2))^2)))</f>
+        <v>23.430749027719962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>73,38)</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E35" si="3">SQRT(((ABS(C4-C3))^2)+(((ABS(D4-D3))^2)))</f>
+        <v>48.083261120685229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>22,28)</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="3"/>
+        <v>51.97114584074513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>18,41)</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="3"/>
+        <v>13.601470508735444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>15,35)</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="3"/>
+        <v>6.7082039324993694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>13,38)</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="3"/>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>35,37)</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="3"/>
+        <v>22.022715545545239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>21,43)</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="3"/>
+        <v>15.231546211727817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>22,30)</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="3"/>
+        <v>13.038404810405298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>24,23)</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="3"/>
+        <v>7.2801098892805181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>67,42)</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="3"/>
+        <v>47.010637094172637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>66,39)</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="3"/>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>89,23)</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="3"/>
+        <v>28.0178514522438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>83,31)</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>34,26)</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="3"/>
+        <v>49.254441424099006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>14,25)</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="3"/>
+        <v>20.024984394500787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>95,28)</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="3"/>
+        <v>81.055536516637773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>62,38)</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="3"/>
+        <v>34.481879299133332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>43,39)</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="3"/>
+        <v>19.026297590440446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>68,38)</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="3"/>
+        <v>25.019992006393608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>22,24)</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="3"/>
+        <v>48.083261120685229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>12,28)</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="3"/>
+        <v>10.770329614269007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>21,25)</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="3"/>
+        <v>9.4868329805051381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>54,43)</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="3"/>
+        <v>37.589892258425003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>71,32)</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="3"/>
+        <v>20.248456731316587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>20,38)</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="3"/>
+        <v>51.35172830587107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>24,31)</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="3"/>
+        <v>8.0622577482985491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>45,45)</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="3"/>
+        <v>25.238858928247925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>24,21)</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="3"/>
+        <v>31.89043743820395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>12,29)</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="3"/>
+        <v>14.422205101855956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>35,40)</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="3"/>
+        <v>25.495097567963924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>34,42)</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>33,39)</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="3"/>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="9">
+        <f>SUM(E2:E35)</f>
+        <v>819.5515920144137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>